--- a/excel/Sentence.xlsx
+++ b/excel/Sentence.xlsx
@@ -2,28 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="문장모음" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -51,7 +57,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,7 +426,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -432,13 +438,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B831"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -752,7 +758,9608 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I need to ________ a meeting with the client at their office next week</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>schedule</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The project manager asked us to ________ the deadline for our report submission by one day</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>extend</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The customer complained about the ________ of our product and demanded a refund</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company is looking for a qualified candidate to ________ the vacant position in the sales department</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>fill</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The training program is designed to ________ the employees' communication skills in the workplace</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company plans to ________ several new products at the upcoming conference</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>unveil</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The employee submitted a ________ for the purchase of new equipment for the department</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>proposal</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department is responsible for ________ the company's computer network and systems</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The customer requested an ________ for the damaged product they received in the mail</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The project team needs to ________ the budget for the next phase of the project before proceeding</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company is looking to ________ their product line with new, innovative designs</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>expand</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR department will ________ the applications and select candidates for the interview process</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I need to ________ a reservation for a conference room for next week's meeting</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO ________ to the company's success, which she attributed to its hardworking employees</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>attributed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The project was completed ________ schedule and within budget</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>aheadof</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new employee is ________ to attend the orientation session on Monday morning</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team is working to ________ the company's brand by increasing social media presence</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department needs to ________ the password policy to ensure better security for company data</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new advertising campaign has ________ an increase in sales</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ledto</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The conference will be held ________ the meeting room on the fourth floor of the building</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new CEO ________ plans to restructure the organization in the next few months</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>announced</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Your resume is missing some key information</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The customer service representative was able to ________ the issue quickly and efficiently</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company policy states that all employees must wear ________ attire to work</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new software application will ________ process of data entry and analysis</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>streamline</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _____________ of the new CEO is to expand the company's market share in Asia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _____________ of the book is to provide practical solutions to common problems in the workplace</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new _______________ focuses on improving customer satisfaction and loyalty</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The project manager's main _______________ is to ensure that the project is completed on time and within budget</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______________ of the training session is to enhance employees' communication and teamwork skills</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ________ is to create a new line of eco-friendly products by next year</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team's ____________ is to target younger audiences through social media advertising</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Our ______________ is to open three new stores in the next quarter</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO's _____________ is to streamline production processes to reduce costs and increase efficiency</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _____________ of the conference is to bring together industry leaders to discuss current trends and challenges</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the new software is to simplify the invoicing process and improve accuracy</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the team is to win the championship this season</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new ___________ involves expanding into international markets</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the presentation was to highlight the company's achievements over the past year</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the training program is to improve employees' leadership skills</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the project is to design and implement a new website for the company</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ is to reduce its carbon footprint by 50% over the next five years</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the new marketing campaign is to increase brand awareness among younger audiences</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO's ___________ is to diversify the company's product offerings and increase revenue streams</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the team meeting is to discuss progress on current projects and set goals for the upcoming quarter</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the sales team is to increase revenue by 20% within the next quarter</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new ___________ involves implementing flexible work schedules to improve work-life balance for employees</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the training session is to teach employees how to use the new software system</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO's ___________ is to expand the company's reach in the international market by setting up new partnerships</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the company's social media strategy is to increase engagement with customers and improve brand reputation</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new _______ strategy has led to an increase in sales over the past quarter</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jacob was hired as a _______ engineer for the new construction project</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Emily is _______ in three languages and can therefore communicate with international clients effectively</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>fluent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The manager asked the team to _______ on a solution to the problem</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>collaborate</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The candidate's _______ made a strong impression during the interview and landed them the job</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>communicationskills</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ team was able to complete the project ahead of schedule</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sarah received _______ for her outstanding performance during the sales quarter</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's _______ policies ensure a safe and healthy work environment for employees</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accountant _______ the financial records before submitting them to the auditor</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team has been _______ meeting their targets for the past six months</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>consistently</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new _______ system has improved efficiency in the warehouse</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO _______ a change in company policy to address customer complaints</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department is responsible for _______ technical issues in the company</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>resolving</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team suggested a _______ campaign to promote the new product</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The customer service representative offered a _______ refund to the dissatisfied customer</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ team presented their findings at the board meeting</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's _______ program offers employees opportunities for professional development</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The manager _______ a team of 10 employees</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>oversees</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales report indicates a _______ in revenue for the past quarter</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's _______ values prioritize customer satisfaction</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The software developer _______ a new application for the company</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing department _______ a survey to gather feedback from customers</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The employee received a _______ for their exceptional work performance</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bonus</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO _______ the company's sustainability goals during the annual shareholders meeting</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>addressed</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The client was impressed with the _______ and efficiency of the project manager</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>professionalism</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _________ was the first person to arrive at the meeting this morning</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's sales ___________ doubled in the last quarter compared to the same period last year</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new employee was ___________ to work on the project immediately</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>tasked</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The team put __________ a strong performance in the championship game last weekend</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The boss told his employees that the new policy would ___________ them to work more efficiently</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ candidate for the job will be chosen based on their skills and experience</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If we don't ___________ the deadline, the client may cancel the contract</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's financial ___________ will be presented at the shareholders' meeting next month</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Julia was ___________ for the position of team leader due to her outstanding performance and leadership skills</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>selected</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The manager instructed his assistant to ___________ the documents before submitting them to the legal department</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team came up with a ___________ to boost sales during the holiday season</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department ___________ the company's financial statements and transactions</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>manages</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new hire was given a ___________ to read and sign before starting their job</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales ___________ for the new product exceeded expectations during the first quarter</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>figures</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager conducted a ___________ with the candidate before offering them the job</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's website is currently ___________ for maintenance</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO ___________ the employees for their hard work and dedication during the difficult times</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>thanked</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The finance team is responsible for ___________ the company's budget and expenses</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>managing</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department resolved the issue with the ___________ printer</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>malfunctioning</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The team ___________ brainstorming ideas for the new marketing campaign</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The project ___________ is scheduled for next month</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>deadline</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's revenue ___________ significantly compared to last year</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>increased</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team presented their ___________ for the new product launch at the meeting</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR department ___________ a comprehensive training program for the new employees</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO gave a ___________ speech during the annual shareholder meeting</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>keynote</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The finance department needs to ___________ the budget before the start of the new fiscal year</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>finalize</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's stock ___________ has been steadily increasing over the past few months</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT team is currently ___________ the new software system</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>installing</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The employees were ___________ to attend the mandatory safety training session</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing campaign ___________ a wide range of digital platforms</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>utilized</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's new policy has been ___________ by all employees</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO ___________ the company's vision and mission during the town hall meeting</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>explained</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department noticed a ___________ in the financial records and reported it to the management</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>discrepancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee's performance during the probation period</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT team ___________ a software upgrade to improve the system's functionality</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ its target for this quarter</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>exceeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing campaign was ___________ to a specific target audience</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>targeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The management team ___________ the employees for their contributions and efforts during the year-end party</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>recognized</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the network issue and resolved it within an hour</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The financial ___________ revealed a significant increase in the company's profits</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR department is responsible for ___________ the job descriptions</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>updating</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ office is located in New York</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT team ___________ the company's website to ensure it is user-friendly</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO ___________ the company's future plans during the press conference</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>announced</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales department ___________ several new clients this month</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>acquired</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department is in charge of hiring new employees</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>HRorHumanResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT team ___________ and maintains the company's computer systems and networks</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>supports</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a survey to collect customer feedback</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's financial records and statements</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO ___________ the company's policies and procedures during the orientation session for new employees</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>explained</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team is responsible for ensuring the safety and well-being of the employees</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the new software application before deploying it</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ the target audience through various channels including social media and email marketing</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>reached</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is ___________ with preparing the financial statements and reports</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>tasked</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the job offer to the selected candidate</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>extended</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department is responsible for developing and implementing the company's marketing strategies</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT team ___________ the software application to fix the bug</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's sales ___________ were affected by the economic downturn</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>figures</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department ___________ the payroll for all the employees</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>handles</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager conducted ___________ interviews to find the right candidate for the job</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The management team ___________ to hire additional staff to handle the increased workload</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>decided</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the security protocols to prevent unauthorized access to the company's system</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a new product line at the trade show</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>showcased</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department ___________ the company's tax returns</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>prepares</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR department ___________ new employees on the company's policies and procedures</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>trains</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team is responsible for handling customer complaints and inquiries</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>customerservice</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the network to improve the connectivity</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>optimized</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a new advertising campaign to attract more customers</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>launched</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is ___________ to perform an audit of the company's financials</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>mandated</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee benefits package during the orientation session</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>explained</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ plan includes expansion to new markets</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>strategic</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the mobile app to support the latest operating system</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ the sales forecast for the upcoming quarter</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>predicted</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is ___________ for processing accounts payable and receivable</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>responsible</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee satisfaction survey to gather feedback</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ strategy is focused on sustainability and reducing its environmental impact</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the system backup to ensure data safety</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>performed</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a social media campaign to increase brand awareness</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>launched</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is ___________ with preparing the financial statements for the auditors</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>tasked</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the job description to attract qualified candidates</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ policy includes flexible work hours and remote working options</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>HRorHumanResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the system to identify and fix the software bugs</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>debugged</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a new sales territory this quarter</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>expanded</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department ___________ the financial data into the system for analysis</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee performance review to assess their progress</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>scheduled</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ plan includes investing in research and development</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>strategic</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the firewall to enhance the system security</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>upgraded</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a focus group to test the new product design</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's books and records</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee handbook to ensure compliance with labor laws</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department is responsible for procuring raw materials and supplies</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>procurement</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the server to optimize its performance</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>reconfigured</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a new contract with a major client</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department ___________ the financial statements for accuracy before submission</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the staffing plan to ensure adequate coverage during the peak season</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team is responsible for maintaining the company's reputation and image</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>publicrelations</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the company's network to prevent cybersecurity threats</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>secured</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a market research study to understand consumer preferences</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the payroll taxes</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>filing</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the job posting on various job boards to reach a wider audience</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>advertised</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ policy includes equal opportunities for all employees</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>HRorHumanResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the network to enable remote access for the employees</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>configured</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a proposal to the client outlining the project scope and estimated cost</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the financial data for accuracy and completeness</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>verifying</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the orientation program to introduce the new hires to the company culture</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>designed</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ plan includes diversifying the product line</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>strategic</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the computer systems to ensure compatibility with the latest software</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>upgraded</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a survey to gather feedback on customer satisfaction</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>administered</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the financial reports to the senior management</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>presenting</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the performance improvement plan to help the underperforming employees</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department is responsible for managing the company's insurance policies</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>riskmanagement</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the company's internet bandwidth to ensure fast and reliable internet connection</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>optimized</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a sales presentation to the potential client</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>delivered</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's financial records in compliance with the accounting standards</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the job application process to make it more user-friendly</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>streamlined</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ plan includes expanding to new geographic locations</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>strategic</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the database to ensure data accuracy and integrity</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>validated</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team ___________ a trade show to promote the company's products</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>organized</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's cash flow and managing the accounts payable and receivable</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>forecasting</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee grievance policy to address workplace conflicts</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department is responsible for managing the company's social media presence</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>socialmedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the backup system to ensure data recovery in case of system failure</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ the sales figures for the previous quarter to assess their performance</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>analyzed</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's financial statements in compliance with the accounting principles</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee incentive program to motivate and retain the employees</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team is responsible for managing the company's philanthropic activities</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>corporatesocialresponsibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the password policy to ensure strong and secure passwords</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>enforced</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a product demo to the potential client</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>presented</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the financial reports to the regulatory authorities</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>submitting</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employment contract to the new employee</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ plan focuses on reducing costs and increasing efficiency</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>cost-saving</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the anti-virus software to protect the computer systems from cyber threats</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a follow-up call to the client to check their level of satisfaction with the product</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the financial data to the external auditors for an independent review</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the performance incentives to reward the top-performing employees</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team is responsible for managing the company's supply chain</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>logistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the system logs to identify any suspicious activities</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>monitored</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ the client's needs before proposing a solution</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the financial audit reports to the board of directors</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>presenting</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee engagement survey to measure employee satisfaction</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ policy focuses on reducing its carbon footprint and promoting sustainability</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the software license agreement to ensure compliance with the usage terms</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a proposal to the potential client outlining the project scope, cost, and deliverables</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the financial statements to the stakeholders</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>reporting</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee recognition program to acknowledge and reward the top-performing employees</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>launched</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ policy includes anti-discrimination and equal opportunities for all employees</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>HRorHumanResources</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the system to ensure seamless integration with third-party applications</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>integrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a sales target for the upcoming quarter</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's financial performance to the management</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>presenting</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee wellness program to promote a healthy and productive workplace</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team is responsible for developing and implementing the company's communication strategy</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the firewall to block unauthorized access to the company's network</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>configured</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ a discount to the client to close the deal</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's tax obligations</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>managing</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee handbook to include the updated policies and procedures</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department is responsible for managing the company's legal affairs</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>legal</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department ___________ the email system to filter out spam and phishing emails</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>configured</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team ___________ the client's budget before submitting the proposal</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for ___________ the company's financial transactions and recording them accurately</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>bookkeeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR manager ___________ the employee contract to include the job description, salary, and benefits</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>drafted</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Some people believe that the _________________________ between humans and animals is what sets us apart from other species</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>cognitiveability</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In order to improve your English speaking skills, it is essential to practice ________________ with native speakers</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>conversation</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Many international students struggle with understanding English__________________ due to accents and variations in pronunciation</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>phonetics</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Effective test-taking strategies include careful _______________ of academic vocabulary and understanding of grammar rules</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The most successful English language learners are those who regularly engage in ___________________ activities, such as reading, writing, and listening to audio materials</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>language-learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ____ of the novel left me feeling emotionally drained</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The professor's lecture on _____ was both insightful and informative</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>linguistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's use of _____ made the story come alive in my mind</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>imagery</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In order to improve their speaking skills, English language learners should practice ____ conversations</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>everyday</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ____ of the sentences in the paragraph were confusing and difficult to understand</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In order to ______ the TOEFL exam, it is essential to have a strong grasp of English grammar and vocabulary</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ section of the TOEFL exam measures a student's ability to understand spoken English</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Listening</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the ________ section of the TOEFL exam, students are required to write essays on a variety of topics</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your TOEFL speaking score is to practice speaking English with a ________</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Nativespeaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the ________ section of the TOEFL exam, students answer multiple-choice questions about academic passages</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When taking the TOEFL exam, be sure to ________ your answers thoroughly before submitting them</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students who struggle with English pronunciation may benefit from focusing on ________ exercises before the TOEFL exam</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Pronunciation</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ section of the TOEFL exam measures a student's ability to use English in a professional or academic setting</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Speaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to practice using ________ software or apps</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the ________ section of the TOEFL exam, students are required to answer questions about graphs, charts, and other visual data presentations</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Integratedspeaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In order to increase your vocabulary for the TOEFL exam, it is recommended that students read and _________ extensively</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Read</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam measures a student's ability to use English to communicate effectively in a university setting</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Speaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam measures a student's ability to understand and analyze academic reading passages</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers are allowed to use __________ during the exam in order to take notes and organize their thoughts</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Scratchpaper</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the __________ section of the TOEFL exam, students are required to answer questions based on their understanding of English grammar</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Grammar</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to practice listening to English language news broadcasts and __________ about what you have heard</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Summarize</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam measures a student's ability to understand spoken English in an academic setting</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Listening</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A good strategy for the TOEFL writing section is to __________ the prompts carefully and make an outline before beginning to write</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Analyze</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your English pronunciation for the TOEFL exam is to use __________ to practice specific sounds and words</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Pronunciationsoftware</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It is important to manage your time effectively during the TOEFL exam by pacing yourself and __________ the time left for each section</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ section of the TOEFL exam includes questions that test a student's ability to understand and analyze English reading passages</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> English language learners may benefit from practicing their grammar skills by completing online ________</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test takers are allowed to use a ________ to indicate when they have finished a section during the TOEFL exam</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Clicker</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the speaking section of the TOEFL exam, students are expected to ________ with fluency and accuracy on a variety of topics</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Communicate</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can prepare for the TOEFL exam by practicing their writing skills with ________ on a variety of topics</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Prompts</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The listening section of the TOEFL exam assesses a student's ability to understand English in a ________ setting</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Academic</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A good strategy for the TOEFL exam is to pace yourself and ________ your time effectively during each section</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Manage</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers should review their answers before submitting them in order to ________ any mistakes or errors</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The speaking section of the TOEFL exam requires students to respond to prompts in an organized and ________ manner</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Coherent</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to take practice tests in order to familiarize yourself with the format and ________ of the exam</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their grammar skills by using online resources such as grammar __________</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Exercises</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can improve their TOEFL speaking skills by practicing with __________</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Nativespeakers</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam measures a student's ability to use English in an academic or professional setting</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Speaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam measures a student's ability to read and understand academic passages in English</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL writing section is to practice writing __________ essays on a variety of topics</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Argumentative</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test takers should __________ their time effectively during the TOEFL exam in order to avoid running out of time before completing a section</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Manage</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam measures a student's ability to understand English heard in academic settings</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Listening</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can improve their English vocabulary by reading and __________ English language newspapers, magazines, and books</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Studying</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to use English in academic settings, so test takers should practice writing and speaking in a __________ style</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Formal</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When taking the TOEFL exam, it's important to __________ your answers carefully in order to avoid errors or mistakes</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the __________ section of the TOEFL exam, students are required to answer questions about graphs, charts, and other visual data presentations</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Listening</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your English pronunciation for the TOEFL exam is to practice __________ with a language partner or teacher</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Speaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> During the TOEFL exam, students can use ________ to take notes and organize their thoughts</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Scratchpaper</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to use English in an academic setting, so students should practice using a __________ style of communication when responding to prompts</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Formal</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The reading section of the TOEFL exam measures a student's ability to understand and analyze __________ written in English</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Passages</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test takers should carefully __________ their answers on the TOEFL exam in order to avoid mistakes or errors</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ section of the TOEFL exam requires students to write essays on a variety of topics in English</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their English vocabulary by using online resources such as flashcards and vocabulary __________</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Lists</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The speaking section of the TOEFL exam measures a student's ability to communicate effectively in English by using appropriate __________</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can prepare for the TOEFL exam by taking __________ tests in order to become familiar with the format and structure of the exam</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your TOEFL reading comprehension is to practice ________ active reading strategies</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Employ</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to use English in academic settings, so it is important to practice writing and speaking in a ________ manner</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Formal</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can improve their TOEFL listening skills by practicing with ________ materials such as podcasts and lectures</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Authentic</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> During the TOEFL writing section, students should ________ their responses in order to ensure that they have answered the prompt fully</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Analyze</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The speaking section of the TOEFL exam measures a student's ability to communicate effectively in English by using appropriate ________ and grammar</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the TOEFL reading section, students are required to read and analyze academic passages written in ________</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can prepare for the TOEFL exam by taking practice tests under ________ conditions to simulate the actual exam experience</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Timed</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL writing section requires students to write essays on a variety of topics in English, so students should practice organizing their thoughts and ideas in a ________ way</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Coherent</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their English vocabulary by using online resources such as ________ and flashcards</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Dictionaries</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The listening section of the TOEFL exam measures a student's ability to understand English spoken in academic ________</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ section of the TOEFL exam measures a student's ability to understand spoken English in an academic setting</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Listening</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your TOEFL speaking skills is to practice with native English speakers who can ________ your pronunciation and grammar</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the ________ section of the TOEFL exam, students are required to write essays that compare and contrast different ideas</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test takers should use ________ paper during the TOEFL exam to take notes and organize their thoughts</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Scratch</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ section of the TOEFL exam measures a student's ability to use English grammar to communicate effectively</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to understand and analyze academic ________ written in English</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Passages</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to practice taking ________ tests under timed conditions</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their English vocabulary by studying ________ words and phrases in the context of academic subjects</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Academic</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The speaking section of the TOEFL exam requires students to answer questions and respond to prompts in a ________ and organized manner</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Coherent</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the TOEFL reading section, students should focus on understanding the main ideas of the passage and making ________ about the content</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Inferences</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The listening section of the TOEFL exam measures a student's ability to understand English spoken in an ________ setting</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Academic</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the writing section of the TOEFL exam, students should ________ their ideas in an organized and logical way</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Develop</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your TOEFL reading comprehension is to practice ________ active reading strategies</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Using</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to use English in academic settings, so students should practice writing and speaking in a ________ style</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Formal</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their English vocabulary by studying ________ and using them in context when practicing writing and speaking</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Words</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the speaking section of the TOEFL exam, students should use a variety of ________ to express their ideas and opinions</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Test takers should use ________ paper during the TOEFL exam to take notes and organize their thoughts</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Scratch</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The reading section of the TOEFL exam measures a student's ability to understand and analyze academic passages written in ________</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their speaking skills by practicing with a ________ teacher or tutor</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Experienced</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to take __________ tests that are designed to simulate the format and content of the actual exam</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> During the TOEFL listening section, students should focus on understanding the main idea and ________ details of the audio</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Supporting</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your TOEFL writing skills is to practice ________ essays on a variety of subjects</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Writing</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to use English in academic settings, so students should use a formal ________ when taking the exam</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Register</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the reading section of the TOEFL exam, students are required to read and analyze academic passages related to a wide variety of ________</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Topics</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their speaking skills by practicing with a variety of ________</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to understand and analyze written and spoken English, so practice in all four ________ is essential</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Students can improve their TOEFL listening skills by listening to authentic English-language materials such as news broadcasts and ________</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Lectures</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the speaking section of the TOEFL exam, students should use ________ to connect ideas and express relationships between them</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Transitions</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to create a study plan and schedule study sessions for each of the four ________ areas</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Test-taking</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> During the TOEFL writing section, students should ________ their ideas thoroughly before beginning to write in order to ensure that their responses are well-organized</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The TOEFL exam measures a student's ability to use English in academic settings, so students should practice speaking in a ________ manner</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Formal</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> During the TOEFL reading section, students should focus on understanding the author's tone and ________</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to improve your TOEFL listening skills is to take detailed ________ on what you hear during practice sessions</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The writing section of the TOEFL exam measures a student's ability to write in a formal style with correct grammar, punctuation, and ________</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Spelling</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the speaking section of the TOEFL exam, students are expected to organize their ideas and ________ a clear argument or point of view</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The reading section of the TOEFL exam measures a student's ability to understand and analyze academic passages related to a wide variety of ________</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Topics</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOEFL test takers can improve their speaking skills by practicing with a ________ teacher or tutor who can provide guidance and feedback</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Qualified</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the TOEFL listening section, students should focus on understanding the ________ structure of the audio passage in addition to the meanings of individual words</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Overall</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One way to prepare for the TOEFL exam is to take practice tests under ________ conditions in order to simulate the actual testing environment</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Timed</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> During the TOEFL writing section, students should ________ their responses in order to ensure that their ideas are well-organized and logically presented</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Revise</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the most populous country in the world</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ serves as the body's main transportation system, carrying oxygen and nutrients throughout the body</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>bloodstream</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Many people believe that a low-carb diet is more _______ for weight loss than a low-fat diet</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>effective</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ is the highest mountain in North America and is located in Alaska</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Denali/MountMcKinley</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a significant event in the Christian religion, commemorating the resurrection of Jesus Christ</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Easter</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The idea of _______ refers to the belief that different races and ethnicities have inherent differences that determine their abilities and worth</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>racial/ethnicsuperiority</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the basic unit of currency in Japan</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Many scientists believe that _______ is the primary cause of global warming and climate change</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>humanactivity/greenhousegasemissions</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a major political party in the United States, often associated with conservative ideals</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>RepublicanParty</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In _______, light is refracted differently depending on the wavelength, allowing for the separation of different colors</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>aprism/opticsspectrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the smallest particle that can exist on its own and still retain the properties of an element</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>atom</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many English-speaking countries, including the United States, Canada, and the United Kingdom</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a large desert that covers a significant portion of Northern Africa</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Sahara</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the main organ responsible for filtering and removing waste products from the blood</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>kidney</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a mathematical concept that represents the ratio of the circumference of a circle to its diameter</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>pi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a process by which plants convert sunlight, carbon dioxide, and water into energy</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>photosynthesis1</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a major river in South America that runs through Brazil, Peru, and Colombia</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Amazon1</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a neurological disorder characterized by seizures, which can range from mild to severe and may cause a loss of consciousness</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>epilepsy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a fundamental law that governs the behavior of matter at the atomic and subatomic level</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>quantummechanics1</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a major mountain range in South America that runs along the western coast, through countries such as Peru, Chile, and Argentina</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Andes</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a natural phenomenon in which the moon appears to move in front of the sun, blocking its light and causing a temporary darkness</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Solareclipse</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a large body of water surrounded by land</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a social science discipline that studies human behavior and interactions</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Sociology</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the largest and deepest ocean on Earth</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>PacificOcean</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a diagram that shows the relationships between different concepts or ideas</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Mindmap</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the basic unit of length in the metric system</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Meter</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the science of classification, naming, and organizing living organisms based on their characteristics and relationships to each other</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Taxonomy</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of literary work that is characterized by its complex plot, suspenseful and unexpected twists, and focus on character development</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the primary source of energy for nearly all life on Earth</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a diagram that shows the relationships between different groups or categories of items</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Venndiagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the capital city of Thailand</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Bangkok</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the study of the history and structure of the Earth's landforms, such as mountains, valleys, and plateaus</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Geology</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a system of canals, rivers, and waterways that connects the Great Lakes to the Atlantic Ocean and enables transportation of goods between the two regions</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>SaintLawrenceSeaway</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of story that is typically passed down through generations in a culture or society, often featuring supernatural or magical elements</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Folktale</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a global financial center and city-state located in Southeast Asia</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is an important international organization that is dedicated to promoting peace, security, and cooperation among its member nations</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>UnitedNations(UN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a branch of mathematics that deals with the properties and relationships of geometric shapes, such as lines, angles, and planes</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Geometry</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of physical activity that is often performed to improve fitness, health, or athletic performance</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a desert located in Australia</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>GreatVictoriaDesert</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of India, Pakistan, and Nepal</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a river that flows through Egypt and is known for its important role in ancient Egyptian civilization</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Nile</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the study of human societies and cultures</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Anthropology</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a major mountain range located in Central Asia, spanning over 8,000 kilometers</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of music characterized by fast-paced beats, electronic sounds, and repetitive rhythms</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Techno</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a country located in Southeast Asia with a capital city of Kuala Lumpur</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a major greenhouse gas that is released into the atmosphere as a result of human activities, such as burning fossil fuels and deforestation</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Carbondioxide(CO2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a branch of philosophy that deals with the nature of knowledge, reality, and existence</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Metaphysics</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of animal that feeds on the flesh of other animals</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Carnivore</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the largest continent on Earth, covering approximately one-third of the planet's land area</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of the world, including the United States, Canada, and Australia</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a principle of physics that states that every action has an equal and opposite reaction</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Newton'sThirdLaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the study of the Earth's atmosphere, including weather patterns, climate change, and air quality</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Meteorology</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a long, narrow body of water that connects two larger bodies of water and is often used for transportation and trade</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Strait</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of plant-eating animal that has a stomach with multiple compartments for digesting tough plant material</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Ruminant</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a country located in Central Europe with a capital city of Budapest</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a major river that flows through the United States, beginning in Minnesota and flowing south to the Gulf of Mexico</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>MississippiRiver</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a branch of science that deals with the study of matter and energy</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of natural disaster that occurs when a large wave or series of waves is generated in the ocean, often as a result of an earthquake or other geological activity</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Tsunami</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a large, triangular-shaped desert located in North Africa</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>SaharaDesert</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of the world, including Spain, Mexico, and parts of South America</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a significant holiday in the United States, celebrated on the fourth Thursday of November and characterized by feasting, parades, and football games</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Thanksgiving</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a field of study that deals with the structure, function, and chemistry of living substances, such as cells, tissues, and organs</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a body of water that is bordered by Europe, Asia, and Africa</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>MediterraneanSea</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of creature that lives in water and has a soft, flexible body and tentacles with stinging cells</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Jellyfish</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a country located in North Africa with a capital city of Tunis</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a system of underground tunnels and chambers located beneath the surface of the Earth, often used for mining or military purposes</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Undergroundmine</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the study of the interactions between living organisms and their environment, including factors such as climate, geography, and human activity</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Ecology</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of food made from ground meat, typically beef, mixed with other ingredients and formed into a shape such as a patty or a ball</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Meatball</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a mountain range located in Europe that stretches from Switzerland to Austria</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Alps</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of Europe, including France, Italy, and Romania</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is the smallest planet in our solar system and is located closest to the sun</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Mercury</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a type of renewable energy that is generated by capturing the heat that is produced by the Earth's core</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Geothermalenergy</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a large body of saltwater that covers approximately 71% of the Earth's surface</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Ocean</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of bird characterized by its long neck and legs and its ability to wade in shallow water</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Heron</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a country located in South Asia with a capital city of Islamabad</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a type of rock that is formed from cooled and solidified magma or lava</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Igneousrock</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a branch of biology that deals with the study of the structure and function of cells, including their organelles and their interactions with other cells</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Cellbiology</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of flying insect that feeds on the blood of animals and humans</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Mosquito</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a region in the southeastern United States that is characterized by its hot, humid climate and its dense forests and swamps</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Southeast(USA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of the world, including Germany, Austria, and Switzerland</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a form of currency that is used in many countries of the European Union</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a field of study that deals with the properties and behavior of matter and energy</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a system of rivers and canals located in China that is used for transportation and irrigation</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>GrandCanal</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of animal that feeds on the flesh of dead animals</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Scavenger</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a country located in Southwest Asia with a capital city of Tehran</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a type of fossil fuel that is extracted from the ground and is often used for transportation and heating</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a branch of science that deals with the study of living organisms and their interactions with each other and the environment</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of flowering plant that belongs to the family Rosaceae and includes many popular fruits such as apples, pears, and peaches</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Fruittree</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a mountain range located in North America, stretching from Canada to Mexico</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>RockyMountains</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of the world, including Brazil, Portugal, and Angola</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a type of tree that is known for its large leaves and delicious fruit, often eaten fresh or used in cooking</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Bananatree</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a field of study that deals with the structure and function of the brain and nervous system</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Neuroscience</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a long, narrow body of water located in the southeastern United States that is known for its warm, shallow waters and sandy beaches</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>GulfofMexico</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of animal that has a hard, protective shell and is often found in water or on land</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Turtle</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a country located in East Asia with a capital city of Tokyo</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a type of mammal that is known for its ability to fly and is found in many parts of the world</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Bat</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a branch of mathematics that deals with the study of the properties of numbers, including their relationships and patterns</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Numbertheory</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A _______ is a type of dish that contains a mixture of ingredients that are baked in the oven, often consisting of meat, vegetables, and cheese</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Casserole</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ is a large desert located in Asia, stretching over 1,500 miles through countries such as China and Mongolia</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>GobiDesert</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is a language spoken in many parts of the world, including Brazil, Portugal, and Angola</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ boy refused to eat his vegetables</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Picky</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The story of Romeo and Juliet is a classic ________ tragedy</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Shakespearean</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ of the new product made it difficult for customers to understand its purpose</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist's use of ________ colors in the painting created a sense of serenity</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Pastel</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ________ statement caused a public outcry</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Controversial</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ of the corporate world requires a certain level of ruthlessness</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Cutthroat</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ of the storm left many without power for days</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Fury</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student's ________ behavior led to his suspension from school</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Disruptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ scientist made a groundbreaking discovery that would change the course of medicine</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Renowned</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ________ of the book was so convincing that readers began to believe it was a true story</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Realism</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the poem was difficult to decipher without context</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The professor gave us several _________ before the exam to help us prepare</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>tips</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company implemented a _________ to promote teamwork among employees</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author used various __________ in the novel to create a suspenseful tone</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>techniques</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The participants in the study were asked to __________ their opinions on the topic</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>express</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the research study were inconclusive and required further investigation</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The government's new policy has sparked __________ among citizens</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>controversy</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The speaker used __________ to emphasize the importance of the issue</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The team was able to __________ the game despite being down by 2 points</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>win</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the debate were well-prepared and presented strong arguments</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> _______ is the capital city of Australia</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Canberra</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Frustrated</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>The_______industryhasbeenimpactedgreatlybytheCOVID-19pandemic</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The teacher asked the students to _______ their essays before submitting them</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Proofread</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Launched</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>The_______ofthebookistoprovidereaderswithabetterunderstandingoftheeconomicsituationinthecountry</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The passengers had to _______ in a long queue before boarding the plane</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author’s main _______ in the article is to educate people about the dangers of climate change</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student had to _______ a lot of effort to complete the difficult assignment</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Exert</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ of the monument was spectacular when viewed from a distance</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Magnitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The government is _______ new policies to reduce pollution in the city</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Implementing</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ of the piano was the highlight of the musical performance</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Melody</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The team’s _______ was hurt when they lost the championship game</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Morale</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ for success is to provide excellent customer service</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The documentary _______ the living conditions of poverty-stricken communities in third-world countries</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Portrays</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ of the research paper was to investigate the effects of social media on mental health</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new employee’s _______ was impressive, and he quickly adapted to his job responsibilities</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Aptitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The teacher assigned a _______ amount of homework for the weekend</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Considerable</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ of the book was so captivating that I couldn't put it down</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientists conducted a _______ study on the effects of pollution on the environment</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Comprehensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to sustainability includes reducing waste and using renewable resources</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ of the project was to develop a new way to purify water for impoverished areas</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ to studying paid off with a perfect score on the exam</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The movie’s _______ is to raise awareness about child trafficking and its devastating effects</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Theme</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO’s _______ leadership style motivated employees to work harder and improve the company’s performance</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Transformational</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The university’s _______ policies ensure that students of diverse cultural backgrounds feel valued and included</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Inclusive</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article _______ the negative effects of social media on mental health</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Highlights</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to environmental sustainability is evident in their recycling program</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ essay received praise and recognition from the teacher</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Outstanding</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _______ of the negotiation was to reach a compromise that satisfied both parties</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist’s _______ style is characterized by bold colors and abstract forms</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book’s _______ is to challenge societal norms and encourage readers to question authority</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Theme</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The government’s _______ to improving healthcare includes expanding access to affordable treatments</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Initiative</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician’s _______ performance left the audience in awe</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Dazzling</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The charity’s _______ campaign raised money for disadvantaged communities in the region</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Outreach</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The teacher’s _______ approach to education emphasizes critical thinking and creativity</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Innovative</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article’s _______ is to inform readers about the benefits of meditation for mental health</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ to the teacher’s questions showed that they had done their homework</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Responses</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician’s _______ speech inspired the crowd to take action</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Passionate</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The research paper’s _______ provided evidence for the author’s claims</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to quality control means that all products are thoroughly inspected before being sold</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The movie’s _______ was so gripping that I forgot I was watching a fictional story</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ was admirable, as they were determined to succeed no matter the obstacles</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Perseverance</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author’s _______ to social justice is evident in their writings on issues of inequality</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician’s _______ was praised by critics for its originality and creativity</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ for expansion into new markets relies on market research and strategic planning</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article’s _______ is to inform readers about recent scientific breakthroughs in the field of genetics</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ in the classroom contributed to a positive learning environment</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Participation</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist’s _______ style is characterized by intricate patterns and bold colors</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician’s _______ caused controversy among voters and sparked public debate</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Statement</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ for innovation has resulted in the introduction of cutting-edge technology</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician’s _______ performance showcased their range of musical talents</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Impressive</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book’s _______ explores complex ethical issues and challenges readers to reflect on their values</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Theme</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientist’s _______ experiment yielded valuable data for further research</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Groundbreaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ of their workforce is reflected in their employee-friendly policies and benefits</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Valuing</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ to detail is evident in their carefully researched essay</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Attention</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article’s _______ is to raise awareness about the importance of mental health and self-care</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to social responsibility is demonstrated through their philanthropic efforts</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ to learning has resulted in consistently high grades</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The movie’s _______ was praised for its powerful message and compelling storytelling</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to quality is reflected in their rigorous testing and inspection procedures</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book’s _______ is to offer practical advice for achieving personal growth and success</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician’s _______ was recognized with multiple awards and accolades</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Talent</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article’s _______ is to provide a thorough analysis of current economic trends</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ for customer satisfaction is evident in their attentive service and swift resolutions to complaints</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Focus</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ writing style stood out among their peers</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Unique</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician’s _______ campaign attracted widespread support and enthusiasm from the public</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Innovative</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to reducing its carbon footprint is reflected in its use of renewable energy sources</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ attitude towards learning hindered their academic progress</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist’s _______ was recognized with a solo exhibit at a prominent museum</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Skill</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to employee development is evident in their training and mentoring programs</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The movie’s _______ left audiences feeling empowered and inspired</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book’s _______ is to challenge readers’ preconceptions and provoke critical thinking</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Theme</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientist’s _______ research has contributed significantly to the field of genetics</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Groundbreaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to ethical business practices is reflected in their transparent policies and procedures</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ analysis of the text demonstrated their critical thinking skills</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Insightful</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article's _______ is to explore the social and cultural implications of technology</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to promoting diversity and inclusivity is reflected in their hiring practices</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ essay earned them a high grade and praise from the teacher</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Well-written</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician’s _______ policy proposals sparked debate among the public and other political figures</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Controversial</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to innovation has led to the development of groundbreaking new technologies</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The movie’s _______ was lauded for its stunning visuals and immersive sound design</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book’s _______ offers a nuanced exploration of complex social issues</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Theme</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientist’s _______ research on cancer treatments has the potential to save countless lives</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Crucial</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to fair labor practices is demonstrated through their ethical sourcing policies</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ analysis of the text revealed a deeper understanding of its themes</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Insightful</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article’s _______ is to provide a comprehensive overview of the history of modern art</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to sustainability is reflected in their eco-friendly packaging</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ performance in the debate earned them first place</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Impressive</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician’s _______ speech resonated with voters and contributed to their election victory</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Inspiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to social responsibility is demonstrated through their charitable donations</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The movie’s _______ received praise for its thought-provoking subject matter and skilled acting</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Storyline</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book’s _______ offers readers a fresh perspective on an age-old problem</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Theme</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientist’s _______ research on renewable energy has the potential to shape the future of energy production</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Innovative</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company’s _______ to excellence is reflected in their consistent delivery of high-quality products and services</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Commitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student’s _______ understanding of the material was evident in their thoughtful comments during the class discussion</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Profound</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The article’s _______ is to provide a detailed analysis of the causes and effects of climate change</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Purpose</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _____ of the book was difficult for the foreign student to understand</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Vocabulary</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The professor lectured in a monotone voice, making it difficult to discern the _____ of his message</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Tone</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grammar and punctuation errors can detract from the _____ of a written communication</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Clarity</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student struggled with the _____ of idiomatic expressions in everyday conversation</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Meaning</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proper _____ is essential in academic writing to convey the intended message accurately</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Syntax</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student was challenged by the _____ of reading and comprehending technical jargon in scientific articles</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _____ of a speaker's or writer's message can be influenced by cultural factors</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Persuasiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ineffective _____ can lead to misunderstandings and miscommunication in interpersonal interactions</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Paralinguistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student's weak _____ skills hindered his ability to understand and respond appropriately in social situations</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Listening</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Strong _____ skills are necessary for effective communication in all aspects of life</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Languageproficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete ran _______ to complete the marathon</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>vigorously</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The book was _______ written that it snagged the reader's attention from the very beginning</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>sowell</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> His talent for ___________ allowed him to improvise his way through the solo</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>musicianship</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The teacher's ____________ knowledge of the subject made class time engaging and informative</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Julia was completely ___________ by the surprise party thrown in her honor</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>takenaback</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sponsor's _____________ allowed the charity event to receive a considerable amount of funding</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>generosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> His skill in ____________ made him a valued member of the debate team</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The _____________ of the streets made navigation through the city difficult</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>labyrinthinelayout</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politicians' ______________ approach to addressing the issue resulted in the passing of a new bill</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>diplomatic</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ____________ of the new phone allowed for quicker and more efficient communication</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>advancedtechnology</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ___________, the weather in California is pretty mild</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Generally</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The committee decided to ___________ the proposal until next month</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Postpone</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ in the laboratory conducted several experiments</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Researchers</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The football coach was ___________ with his team's performance</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Displeased</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ice cream shop had a wide ___________ of flavors to choose from</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Variety</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new employee had to ___________ all the company policies and procedures</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Familiarize</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The art exhibit featured ___________ from all over the world</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Artists</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The concert was ___________ due to bad weather</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The deadline for the project was ___________ for another week</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Extended</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The student's ___________ improved after attending tutoring sessions</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientist conducted a ___________ study on the effects of climate change</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Comprehensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Despite his busy schedule, he always finds time to ___________ his hobbies</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Pursue</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's speech was filled with ___________ rhetoric and empty promises</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Grandiose</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist used vibrant colors to create a ___________ and eye</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Striking 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Soared 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pioneering 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Electrifying 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unique 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inclement 
+</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>beingandwork</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the movie kept the audience on the edge of their seats</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the artwork was stunning, with intricate details and vivid colors</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Imagery</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The scientist conducted a ___________ study to test her hypothesis</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Controlled</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ between the two concepts is not immediately apparent</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Discrepancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete was ___________ in her sport, winning numerous championships and breaking records</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Dominant</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the device is simple and intuitive, making it easy to use</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist's ___________ technique was unconventional and unique, drawing attention from art enthusiasts around the world</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Innovative</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The economic ___________ of the country was in decline, with rising unemployment and inflation</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Stability</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's ___________ voice and storytelling ability made her books popular among readers of all ages</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Engaging</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ record was scrutinized during the debate, with opponents pointing to inconsistencies and controversial decisions</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Votingrecord</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the fashion show was a stunning display of creativity and style</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Runway</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company implemented new ___________ to improve their customer service</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Policies</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The research study was ___________ in its scope and methodology</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Rigorous</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete's ___________ was compromised due to an injury</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the painting was inspired by the natural beauty of the landscape</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ speech rallied support from his supporters and stirred controversy among his opponents</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Rousing</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The researcher conducted a ___________ analysis of the data to identify trends and patterns</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Thorough</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ dispute between the two countries remained unresolved for years</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Territorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician's ___________ voice and skilled instrumentation captivated the audience</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Melodic</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ strategy focused on efficiency and cost savings</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Operational</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the novel was filled with unexpected twists and turns</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Plot</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The team's ___________ performance was impressive, with each player contributing to the win</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Collective</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The researcher's ___________ experiment yielded unexpected results</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Unorthodox</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author used ___________ to create a vivid and memorable setting</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Descriptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's profits ___________ due to increased demand for their products</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Skyrocketed</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ views were met with both support and criticism</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Controversial</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician's ___________ performance was a highlight of the music festival</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Electrifying</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department developed a new marketing strategy to reach a wider audience</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ in the courtroom was tense as the jury delivered their verdict</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The artist's ___________ work challenged traditional notions of art and beauty</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Experimental</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's use of ___________ added depth and complexity to the characters in the novel</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Dialogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ practices prioritize sustainability and environmental responsibility</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Ethical</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The experiment yielded ___________ results, confirming the researcher's hypothesis</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete's ___________ was impressive, breaking several records over the course of their career</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The film's ___________ score contributed to the emotional impact of the story</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Musical</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's ___________ style and unique perspective made their books popular among readers</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Literary</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team worked diligently to address customer complaints and improve product quality</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Customerservice</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ campaign promised sweeping changes and reforms</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Ambitious</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician's ___________ performance received critical acclaim and widespread praise</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Expressive</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ strategy focused on innovation and staying ahead of industry trends</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the play was thought</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Theme 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Groundbreaking 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Discipline 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bold 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commitment 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Controversial 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Musical 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Expansion 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Statistical 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the company's products is a result of careful design and quality materials</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Durability</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ speech rallied support and sparked hope among their audience</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Inspiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete's ___________ to their sport earned them numerous awards and recognition</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Dedication</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's ___________ style and unique perspective made their books popular among readers</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Distinctive</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ department developed a successful marketing campaign that boosted sales</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician's ___________ performance was filled with energy and enthusiasm, keeping the audience engaged throughout the show</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Dynamic</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The researcher's ___________ approach to data analysis revealed new insights and trends</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Innovative</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The film's ___________ cast included a diverse range of actors and actresses</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Diverse</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's commitment to ___________ has earned it recognition as a leader in sustainability</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Environmentalresponsibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's ___________ descriptions of nature added depth and beauty to the novel</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Vivid</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the experiment was to test the effectiveness of the new drug</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete's ___________ performance broke several records and earned them a place in history</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Stellar</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team worked to improve production efficiency and reduce waste</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's vivid ___________ brought the setting to life on the pages of the book</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Imagery</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's commitment to ___________ has earned it recognition as a socially responsible corporation</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Corporatesocialresponsibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician's ___________ performance showcased their versatility and talent</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Impressive</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ campaign promised reforms in healthcare and education</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Progressive</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The researcher's ___________ study confirmed the efficacy of the treatment</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Rigorous</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The film's ___________ storyline and complex characters made it a critical success</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Intricate</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ strategy focused on innovation and staying ahead of industry trends</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Visionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the company's products is a result of their commitment to quality</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Superiority</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The politician's ___________ speech was met with standing ovations and cheers</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Rousing</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The athlete's ___________ discipline and training paid off in their performance on the field</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Rigorous</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's ___________ voice and unique perspective made their books popular among readers</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Distinctive</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's ___________ team developed a successful advertising campaign that boosted sales</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The musician's ___________ performance was filled with passion and energy, captivating the audience throughout the show</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Electrifying</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The researcher's ___________ approach to data analysis revealed new insights and patterns</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Innovative</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The film's ___________ cast included a diverse range of actors, promoting representation and inclusivity in Hollywood</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Diverse</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company's commitment to ___________ has earned it recognition as an industry leader in sustainability</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Environmentalresponsibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The author's ___________ descriptions of nature contributed to the vivid imagery of the novel</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Descriptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the movie was so intense that I couldn't look away</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>suspense</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In order to be successful in business, you need good ___________ skills</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the forest made it difficult to navigate through</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the sculpture was impressive</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>intricacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the product was a major factor in my decision to purchase it</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>durability</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> His ___________ was impressive, and he was able to persuade the audience to support his argument</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the storm caused widespread damage to the town</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the book was captivating, and I couldn't put it down</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ in the new neighborhood was very diverse, with people from all over the world</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>demography</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The ___________ of the new building was impressive, with its towering height and modern design</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this cake is chocolate, but it also has hints of cinnamon and orange</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>flavor</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of freedom is something that has been debated for centuries</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>concept</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of her speech was so clear, I could understand every word she said</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>enunciation</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of climate change is clear, and we need to take action to reduce its impact</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>reality</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the economy is unpredictable, with ups and downs that can happen quickly</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>volatility</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the painting was what caught my eye </t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>(composition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> composition
+</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>(quality)</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quality
+</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>(value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> value
+</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>thespecialeffectswereunlikeanythingIhadseenbefore</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (visuals)
+</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>The__________ofthenovelwascomplex,withmultiplestorylinesandinterestingcharacters</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this experiment is to test the effectiveness of a new medication</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of his argument was flawed, and he was unable to convince anyone</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>logic</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the situation was overwhelming, and I didn't know what to do</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the data showed a clear trend</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the storm was so strong, it knocked down trees and power lines</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the building was impressive, with its soaring height and modern design</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the subject matter was challenging, but I was able to persevere with the help of my professor</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>difficulty</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the music was incredible, with its beautiful melodies and intricate harmonies</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>artistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the performance was flawless, and the audience erupted into applause</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>execution</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the photography was breathtaking, with stunning landscapes and perfect lighting</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the city makes it a popular destination for tourists</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>diversity</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this painting is its bold use of color and texture</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>beauty</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the book was fascinating, and I couldn't put it down</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of our team is that we work collaboratively and support each other</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this problem requires a creative solution</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this film is its ability to evoke strong emotions in its viewers</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the argument was well</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>(logic)</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> logic
+</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>(efficacy)</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> efficacy
+</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>(beauty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> beauty
+</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>(analysis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the city skyline at night is breathtaking</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>panorama</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of his argument was convincing, and I agreed with his conclusion</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>persuasiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this novel is its ability to capture the essence of life in a bygone era</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>nostalgia</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the speaker's voice was soothing, and I felt relaxed while listening to him</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>intonation</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the storm caused significant damage to the area</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the painting was exquisite, with its delicate brush strokes and subtle shading</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>artistry</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the candidate was impressive, with a strong track record of success</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>credential</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the experience was intense, and I will never forget it</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this experiment is to determine the effect of temperature on plant growth</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>objective</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the music was incredible, with its dynamic rhythms and intricate melodies</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the city's architecture is fascinating, with a mix of modern and traditional styles</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>diversity</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this painting is its use of vibrant colors and bold brush strokes</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>expressiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the novel was captivating, with its complex characters and intricate plot</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of her voice was so beautiful, it brought tears to my eyes</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>melody</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the hurricane was devastating, causing widespread destruction throughout the region</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>magnitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the film was impressive, with stunning visuals and special effects</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>cinematography</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the team was essential in achieving our goals</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>collaboration</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the sculpture was striking, with its unique shapes and textures</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the product was its ability to solve a common problem</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>utility</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the research project was groundbreaking, leading to new insights and discoveries</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this novel lies in its ability to explore complex social issues</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this painting is its ability to evoke emotions in the viewer</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the debate was intense, with passionate arguments on both sides</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>contention</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of his writings was powerful, inspiring generations of readers</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the glacier was awe</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>(majesty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> majesty
+</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>(score)</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> score
+</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>(ingenuity)</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ingenuity
+</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>(complexity)</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> complexity
+</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>(storytelling)</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> storytelling
+</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>(analysis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the city's skyline is iconic and recognizable worldwide</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>distinctiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the play was its clever use of language and witty humor</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>wit</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the research demonstrated a clear cause</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>effectrelationship</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (causality)
+</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>The__________ofthesinger'sperformancewasimpressive,hittingeverynotewithprecision</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (vocals)
+</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>The__________oftheearthquakewassopowerful,itwasfelthundredsofmilesaway</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (force)
+</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>The__________ofthemuseum'scollectionwasvastanddiverse,spanningmultipletimeperiodsandcultures</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (range)
+</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>The__________oftheteamwastheirabilitytoworkwellunderpressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (resilience)
+</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>The__________ofthesculpturewasbreathtaking,withintricatedetailsandalifelikequality</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (realism)
+</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>The__________oftheauthor'swritingstylewascaptivating,drawingthereaderintothestory</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (prose)
+</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>The__________ofthetechnologyhaschangedthewayweinteractwiththeworld</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of this research showed a significant correlation between the two variables</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>finding</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the concert was impressive, with the musician's skill and stage presence</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the storm caused widespread damage, with millions of people affected</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>ferocity</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the painting was thought</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>(meaning)</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> meaning
+</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>(goal)</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> goal
+</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>(acting)</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> acting
+</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>(relevance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> relevance
+</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>(collaboration)</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> collaboration
+</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>(craftsmanship)</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> craftsmanship
+</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>(flexibility)</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the movie was its ability to capture the nuances of human emotion</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the painting was impressive, with its use of light and shadow to create a sense of depth</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>perspective</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the research was groundbreaking, leading to new discoveries in the field</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the singer's voice was so powerful, it gave me chills</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the earthquake was so strong, it caused buildings to collapse</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the museum's collection was overwhelming, with thousands of artifacts from different cultures and eras</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>diversity</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the writing was poetic, with vivid imagery and beautiful prose</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>lyricism</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the team's victory was due to their hard work and dedication</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>determination</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the building's design was impressive, with its futuristic look and feel</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>innovativeness</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The __________ of the music was its ability to evoke a range of emotions in the listener</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>expressiveness</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The manager asked the employee to _________ a report on the sales figures</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Please __________ your attention to the front of the room where the presentation will begin</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company plans to _________ a new product line next year</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>launch</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The deadline for submitting the project proposal is ___________</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>approaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The department is looking for someone who is ___________ in data analysis</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>proficient</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The software developer is ____________ in programming multiple languages</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>proficient</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The team was commended for their ____________ effort on completing the project ahead of schedule</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>collaborative</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company provides _____________ training for their employees to enhance their skills</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The CEO ___________ the employees for their hard work during the last quarter</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>applauded</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department is responsible for ____________ network security</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company is looking to _________ its market share by expanding into new regions</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The customer service representative apologized for the _________ in shipping the order</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>delay</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new CEO has _________ several changes to improve company performance</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The accounting department is responsible for _________ financial records</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The sales team has set a _________ target for the quarter</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The HR department is conducting __________ surveys to gather employee feedback</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The IT department is ___________ for troubleshooting software issues</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>responsible</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The project team is ___________ a progress report for the stakeholders</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The company has a strong emphasis on ___________ sustainability</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The marketing team has launched a new _________ campaign to promote the product</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>advertising</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>